--- a/opm_hero_property/heroes/45.xlsx
+++ b/opm_hero_property/heroes/45.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11063</v>
       </c>
       <c r="D4" t="n">
-        <v>11063</v>
+        <v>11623</v>
       </c>
       <c r="E4" t="n">
         <v>254</v>
@@ -1304,7 +1305,7 @@
         <v>12268</v>
       </c>
       <c r="D5" t="n">
-        <v>12268</v>
+        <v>13461</v>
       </c>
       <c r="E5" t="n">
         <v>381</v>
@@ -1411,7 +1412,7 @@
         <v>13685</v>
       </c>
       <c r="D6" t="n">
-        <v>13685</v>
+        <v>15625</v>
       </c>
       <c r="E6" t="n">
         <v>522</v>
@@ -1518,7 +1519,7 @@
         <v>15314</v>
       </c>
       <c r="D7" t="n">
-        <v>15314</v>
+        <v>20141</v>
       </c>
       <c r="E7" t="n">
         <v>978</v>
@@ -1625,7 +1626,7 @@
         <v>17157</v>
       </c>
       <c r="D8" t="n">
-        <v>17157</v>
+        <v>26387</v>
       </c>
       <c r="E8" t="n">
         <v>1449</v>
@@ -1732,7 +1733,7 @@
         <v>19283</v>
       </c>
       <c r="D9" t="n">
-        <v>19283</v>
+        <v>34798</v>
       </c>
       <c r="E9" t="n">
         <v>1913</v>
@@ -1839,7 +1840,7 @@
         <v>20416</v>
       </c>
       <c r="D10" t="n">
-        <v>20416</v>
+        <v>41801</v>
       </c>
       <c r="E10" t="n">
         <v>2260</v>
@@ -1946,7 +1947,7 @@
         <v>21763</v>
       </c>
       <c r="D11" t="n">
-        <v>21763</v>
+        <v>50401</v>
       </c>
       <c r="E11" t="n">
         <v>2637</v>
@@ -2053,7 +2054,7 @@
         <v>24597</v>
       </c>
       <c r="D12" t="n">
-        <v>24597</v>
+        <v>65707</v>
       </c>
       <c r="E12" t="n">
         <v>3246</v>
@@ -2160,7 +2161,7 @@
         <v>25164</v>
       </c>
       <c r="D13" t="n">
-        <v>25164</v>
+        <v>67870</v>
       </c>
       <c r="E13" t="n">
         <v>3651</v>
@@ -2267,7 +2268,7 @@
         <v>25731</v>
       </c>
       <c r="D14" t="n">
-        <v>25731</v>
+        <v>70033</v>
       </c>
       <c r="E14" t="n">
         <v>4057</v>
@@ -2374,7 +2375,7 @@
         <v>26298</v>
       </c>
       <c r="D15" t="n">
-        <v>26298</v>
+        <v>72197</v>
       </c>
       <c r="E15" t="n">
         <v>4463</v>
@@ -2481,7 +2482,7 @@
         <v>26865</v>
       </c>
       <c r="D16" t="n">
-        <v>26865</v>
+        <v>74360</v>
       </c>
       <c r="E16" t="n">
         <v>4869</v>
@@ -2588,7 +2589,7 @@
         <v>27431</v>
       </c>
       <c r="D17" t="n">
-        <v>27431</v>
+        <v>76523</v>
       </c>
       <c r="E17" t="n">
         <v>5274</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>35472.8804304</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4236.5663575</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2588.923125</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1450</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>45</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>47813.8909581</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6491.158351</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3845.794334</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1450</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>82263.65661559999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12187.912</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7865.290908</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1450</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>45</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>82263.65661559999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12187.912</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7865.290908</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1380</v>
+      </c>
+      <c r="X5" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1510</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>45</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>73848.5309876</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11079.352</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7067.084868</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1380</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>460</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>45</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>292418.8916846</v>
+      </c>
+      <c r="U7" t="n">
+        <v>43896.57536</v>
+      </c>
+      <c r="V7" t="n">
+        <v>33741.3275714</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X7" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1950</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>45</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>253904.0130866</v>
+      </c>
+      <c r="U8" t="n">
+        <v>39238.57856</v>
+      </c>
+      <c r="V8" t="n">
+        <v>29482.1378894</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X8" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>900</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>45</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>266742.3059526</v>
+      </c>
+      <c r="U9" t="n">
+        <v>40791.24416</v>
+      </c>
+      <c r="V9" t="n">
+        <v>30901.8677834</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X9" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>45</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>279580.5988186</v>
+      </c>
+      <c r="U10" t="n">
+        <v>42343.90976</v>
+      </c>
+      <c r="V10" t="n">
+        <v>32321.5976774</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X10" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>45</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>292418.8916846</v>
+      </c>
+      <c r="U11" t="n">
+        <v>43896.57536</v>
+      </c>
+      <c r="V11" t="n">
+        <v>33741.3275714</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X11" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1950</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>45</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>292418.8916846</v>
+      </c>
+      <c r="U12" t="n">
+        <v>43896.57536</v>
+      </c>
+      <c r="V12" t="n">
+        <v>33741.3275714</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X12" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1890</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>45</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>429196.999322</v>
+      </c>
+      <c r="U13" t="n">
+        <v>66562.83222700001</v>
+      </c>
+      <c r="V13" t="n">
+        <v>56369.84393240001</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2260</v>
+      </c>
+      <c r="X13" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>45</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>429196.999322</v>
+      </c>
+      <c r="U14" t="n">
+        <v>66562.83222700001</v>
+      </c>
+      <c r="V14" t="n">
+        <v>56369.84393240001</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2340</v>
+      </c>
+      <c r="X14" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>45</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1018206.7844587</v>
+      </c>
+      <c r="U15" t="n">
+        <v>167756.01569</v>
+      </c>
+      <c r="V15" t="n">
+        <v>154863.9</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2660</v>
+      </c>
+      <c r="X15" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2310</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>45</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5307707.2179368</v>
+      </c>
+      <c r="U16" t="n">
+        <v>868940.3203364999</v>
+      </c>
+      <c r="V16" t="n">
+        <v>789750.3807505999</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3300</v>
+      </c>
+      <c r="X16" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>45</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8668867.661784399</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1423044.7360835</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1282111.1227992</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4340</v>
+      </c>
+      <c r="X17" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3570</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>45</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>234070.2696689</v>
+      </c>
+      <c r="U18" t="n">
+        <v>40963.528544</v>
+      </c>
+      <c r="V18" t="n">
+        <v>26614.4822648</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1380</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>460</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>45</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>319970.3425608</v>
+      </c>
+      <c r="U19" t="n">
+        <v>52467.246551</v>
+      </c>
+      <c r="V19" t="n">
+        <v>37922.2388268</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X19" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1190</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>45</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>412886.0183654</v>
+      </c>
+      <c r="U20" t="n">
+        <v>65863.3525835</v>
+      </c>
+      <c r="V20" t="n">
+        <v>54006.7483778</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X20" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>45</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>476773.435969</v>
+      </c>
+      <c r="U21" t="n">
+        <v>77818.66172100001</v>
+      </c>
+      <c r="V21" t="n">
+        <v>64529.5518518</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2340</v>
+      </c>
+      <c r="X21" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>45</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>547014.02853</v>
+      </c>
+      <c r="U22" t="n">
+        <v>95031.015155</v>
+      </c>
+      <c r="V22" t="n">
+        <v>78324.057464</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2660</v>
+      </c>
+      <c r="X22" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2310</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>45</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>690825.3806436</v>
+      </c>
+      <c r="U23" t="n">
+        <v>130215.7867505</v>
+      </c>
+      <c r="V23" t="n">
+        <v>106311.6812018</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3300</v>
+      </c>
+      <c r="X23" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/45.xlsx
+++ b/opm_hero_property/heroes/45.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>35472.8804304</v>
+        <v>5442584.2179368</v>
       </c>
       <c r="U2" t="n">
-        <v>4236.5663575</v>
+        <v>892668.3203364999</v>
       </c>
       <c r="V2" t="n">
-        <v>2588.923125</v>
+        <v>811590.3807505999</v>
       </c>
       <c r="W2" t="n">
-        <v>1300</v>
+        <v>3300</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1450</v>
+        <v>2790</v>
       </c>
       <c r="AA2" t="n">
-        <v>1600</v>
+        <v>2880</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11550602.062245</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2130372.0553296</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2007105.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>16283242.8175746</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>47813.8909581</v>
+        <v>690825.3806436</v>
       </c>
       <c r="U3" t="n">
-        <v>6491.158351</v>
+        <v>130215.7867505</v>
       </c>
       <c r="V3" t="n">
-        <v>3845.794334</v>
+        <v>106311.6812018</v>
       </c>
       <c r="W3" t="n">
-        <v>1300</v>
+        <v>3300</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1450</v>
+        <v>2790</v>
       </c>
       <c r="AA3" t="n">
-        <v>1600</v>
+        <v>2880</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1309430.078765</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>242178.2473674</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>480680.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2215208.9761324</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>82263.65661559999</v>
+        <v>7876.4112</v>
       </c>
       <c r="U4" t="n">
-        <v>12187.912</v>
+        <v>1513.6765</v>
       </c>
       <c r="V4" t="n">
-        <v>7865.290908</v>
+        <v>620.5625</v>
       </c>
       <c r="W4" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1450</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19119.613425</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4498.9</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23618.513425</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>82263.65661559999</v>
+        <v>21124.9293</v>
       </c>
       <c r="U5" t="n">
-        <v>12187.912</v>
+        <v>3763.7042</v>
       </c>
       <c r="V5" t="n">
-        <v>7865.290908</v>
+        <v>1902.319</v>
       </c>
       <c r="W5" t="n">
-        <v>1380</v>
+        <v>638</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1510</v>
+        <v>160</v>
       </c>
       <c r="AA5" t="n">
-        <v>1600</v>
+        <v>640</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>48822.72253</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11906.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60729.52253</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>73848.5309876</v>
+        <v>59568.0268</v>
       </c>
       <c r="U6" t="n">
-        <v>11079.352</v>
+        <v>9702.4</v>
       </c>
       <c r="V6" t="n">
-        <v>7067.084868</v>
+        <v>6040.478</v>
       </c>
       <c r="W6" t="n">
-        <v>1380</v>
+        <v>900</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="AA6" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>117389.0353</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9526.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>165814.8353</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>292418.8916846</v>
+        <v>59568.0268</v>
       </c>
       <c r="U7" t="n">
-        <v>43896.57536</v>
+        <v>9702.4</v>
       </c>
       <c r="V7" t="n">
-        <v>33741.3275714</v>
+        <v>6040.478</v>
       </c>
       <c r="W7" t="n">
-        <v>2180</v>
+        <v>980</v>
       </c>
       <c r="X7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>1950</v>
+        <v>360</v>
       </c>
       <c r="AA7" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB7" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>117389.0353</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9709.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>165997.8353</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>253904.0130866</v>
+        <v>59848.5309876</v>
       </c>
       <c r="U8" t="n">
-        <v>39238.57856</v>
+        <v>9739.351999999999</v>
       </c>
       <c r="V8" t="n">
-        <v>29482.1378894</v>
+        <v>6067.084868</v>
       </c>
       <c r="W8" t="n">
-        <v>2180</v>
+        <v>980</v>
       </c>
       <c r="X8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="AA8" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB8" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>117389.0353</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>688.4624785999999</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9709.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>166686.2977786</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,21 +7776,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>266742.3059526</v>
+        <v>251831.1838</v>
       </c>
       <c r="U9" t="n">
-        <v>40791.24416</v>
+        <v>39240.31200000001</v>
       </c>
       <c r="V9" t="n">
-        <v>30901.8677834</v>
+        <v>29467.1649</v>
       </c>
       <c r="W9" t="n">
         <v>2180</v>
@@ -7594,7 +7802,7 @@
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="AA9" t="n">
         <v>2880</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>534554.484775</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>703173.5347750001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,21 +7911,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>279580.5988186</v>
+        <v>253115.0130866</v>
       </c>
       <c r="U10" t="n">
-        <v>42343.90976</v>
+        <v>39395.57856</v>
       </c>
       <c r="V10" t="n">
-        <v>32321.5976774</v>
+        <v>29609.1378894</v>
       </c>
       <c r="W10" t="n">
         <v>2180</v>
@@ -7705,7 +7937,7 @@
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="AA10" t="n">
         <v>2880</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>534554.484775</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3171.51323965</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>706345.0480146501</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,21 +8046,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>292418.8916846</v>
+        <v>265953.3059526</v>
       </c>
       <c r="U11" t="n">
-        <v>43896.57536</v>
+        <v>40948.24416</v>
       </c>
       <c r="V11" t="n">
-        <v>33741.3275714</v>
+        <v>31028.8677834</v>
       </c>
       <c r="W11" t="n">
         <v>2180</v>
@@ -7816,7 +8072,7 @@
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1950</v>
+        <v>1250</v>
       </c>
       <c r="AA11" t="n">
         <v>2880</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>534554.484775</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>35184.14563615</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>738357.6804111501</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,24 +8181,24 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>292418.8916846</v>
+        <v>278791.5988186</v>
       </c>
       <c r="U12" t="n">
-        <v>43896.57536</v>
+        <v>42500.90976</v>
       </c>
       <c r="V12" t="n">
-        <v>33741.3275714</v>
+        <v>32448.5976774</v>
       </c>
       <c r="W12" t="n">
-        <v>2100</v>
+        <v>2180</v>
       </c>
       <c r="X12" t="n">
         <v>720</v>
@@ -7927,7 +8207,7 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1890</v>
+        <v>1600</v>
       </c>
       <c r="AA12" t="n">
         <v>2880</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>534554.484775</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>67196.77803265001</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>770370.3128076501</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,20 +8320,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>429196.999322</v>
+        <v>291629.8916846</v>
       </c>
       <c r="U13" t="n">
-        <v>66562.83222700001</v>
+        <v>44053.57536</v>
       </c>
       <c r="V13" t="n">
-        <v>56369.84393240001</v>
+        <v>33868.3275714</v>
       </c>
       <c r="W13" t="n">
-        <v>2260</v>
+        <v>2180</v>
       </c>
       <c r="X13" t="n">
         <v>720</v>
@@ -8038,7 +8342,7 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2010</v>
+        <v>1950</v>
       </c>
       <c r="AA13" t="n">
         <v>2880</v>
@@ -8050,25 +8354,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>534554.484775</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>99209.41042915001</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>802382.9452041499</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,20 +8455,20 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>429196.999322</v>
+        <v>291629.8916846</v>
       </c>
       <c r="U14" t="n">
-        <v>66562.83222700001</v>
+        <v>44053.57536</v>
       </c>
       <c r="V14" t="n">
-        <v>56369.84393240001</v>
+        <v>33868.3275714</v>
       </c>
       <c r="W14" t="n">
-        <v>2340</v>
+        <v>2100</v>
       </c>
       <c r="X14" t="n">
         <v>720</v>
@@ -8149,7 +8477,7 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2070</v>
+        <v>1890</v>
       </c>
       <c r="AA14" t="n">
         <v>2880</v>
@@ -8161,25 +8489,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>534554.484775</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>99209.41042915001</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>39155.4</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>802199.9452041499</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,20 +8590,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1018206.7844587</v>
+        <v>431696.999322</v>
       </c>
       <c r="U15" t="n">
-        <v>167756.01569</v>
+        <v>67370.83222700001</v>
       </c>
       <c r="V15" t="n">
-        <v>154863.9</v>
+        <v>57143.84393240001</v>
       </c>
       <c r="W15" t="n">
-        <v>2660</v>
+        <v>2260</v>
       </c>
       <c r="X15" t="n">
         <v>720</v>
@@ -8260,7 +8612,7 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2310</v>
+        <v>2010</v>
       </c>
       <c r="AA15" t="n">
         <v>2880</v>
@@ -8272,25 +8624,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>825252.4555100001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>152830.0887896</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111894</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1237356.3442996</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,20 +8725,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5307707.2179368</v>
+        <v>431696.999322</v>
       </c>
       <c r="U16" t="n">
-        <v>868940.3203364999</v>
+        <v>67370.83222700001</v>
       </c>
       <c r="V16" t="n">
-        <v>789750.3807505999</v>
+        <v>57143.84393240001</v>
       </c>
       <c r="W16" t="n">
-        <v>3300</v>
+        <v>2340</v>
       </c>
       <c r="X16" t="n">
         <v>720</v>
@@ -8371,7 +8747,7 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2790</v>
+        <v>2070</v>
       </c>
       <c r="AA16" t="n">
         <v>2880</v>
@@ -8383,25 +8759,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>825252.4555100001</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>152830.0887896</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>112077</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1237539.3442996</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,20 +8860,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8668867.661784399</v>
+        <v>1055701.7844587</v>
       </c>
       <c r="U17" t="n">
-        <v>1423044.7360835</v>
+        <v>174613.01569</v>
       </c>
       <c r="V17" t="n">
-        <v>1282111.1227992</v>
+        <v>161496.9</v>
       </c>
       <c r="W17" t="n">
-        <v>4340</v>
+        <v>2660</v>
       </c>
       <c r="X17" t="n">
         <v>720</v>
@@ -8482,7 +8882,7 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>3570</v>
+        <v>2310</v>
       </c>
       <c r="AA17" t="n">
         <v>2880</v>
@@ -8494,58 +8894,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1896900.4873</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>350504.6304197</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685015</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3202277.2677197</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>234070.2696689</v>
+        <v>5442584.2179368</v>
       </c>
       <c r="U18" t="n">
-        <v>40963.528544</v>
+        <v>892668.3203364999</v>
       </c>
       <c r="V18" t="n">
-        <v>26614.4822648</v>
+        <v>811590.3807505999</v>
       </c>
       <c r="W18" t="n">
-        <v>1380</v>
+        <v>3300</v>
       </c>
       <c r="X18" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>460</v>
+        <v>2790</v>
       </c>
       <c r="AA18" t="n">
-        <v>1600</v>
+        <v>2880</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11550602.062245</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2130372.0553296</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2007105.4</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>16283242.8175746</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,34 +9116,34 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>319970.3425608</v>
+        <v>8978585.661784399</v>
       </c>
       <c r="U19" t="n">
-        <v>52467.246551</v>
+        <v>1477077.7360835</v>
       </c>
       <c r="V19" t="n">
-        <v>37922.2388268</v>
+        <v>1331343.1227992</v>
       </c>
       <c r="W19" t="n">
-        <v>2100</v>
+        <v>4340</v>
       </c>
       <c r="X19" t="n">
         <v>720</v>
@@ -8704,7 +9152,7 @@
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1190</v>
+        <v>3570</v>
       </c>
       <c r="AA19" t="n">
         <v>2880</v>
@@ -8716,25 +9164,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18740346.52143</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3456068.17542595</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3470479</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26842626.49685595</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>412886.0183654</v>
+        <v>220070.2696689</v>
       </c>
       <c r="U20" t="n">
-        <v>65863.3525835</v>
+        <v>39623.528544</v>
       </c>
       <c r="V20" t="n">
-        <v>54006.7483778</v>
+        <v>25614.4822648</v>
       </c>
       <c r="W20" t="n">
-        <v>2180</v>
+        <v>980</v>
       </c>
       <c r="X20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>1600</v>
+        <v>360</v>
       </c>
       <c r="AA20" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB20" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>561399.8865200001</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3311.3031251</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>33359.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>645506.3896451</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>476773.435969</v>
+        <v>290570.3425608</v>
       </c>
       <c r="U21" t="n">
-        <v>77818.66172100001</v>
+        <v>49653.246551</v>
       </c>
       <c r="V21" t="n">
-        <v>64529.5518518</v>
+        <v>35822.2388268</v>
       </c>
       <c r="W21" t="n">
-        <v>2340</v>
+        <v>1260</v>
       </c>
       <c r="X21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2070</v>
+        <v>920</v>
       </c>
       <c r="AA21" t="n">
-        <v>2880</v>
+        <v>1800</v>
       </c>
       <c r="AB21" t="n">
-        <v>1800</v>
+        <v>1125</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>667650.10783</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49107.75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>43752.3091868</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>66719.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>846257.8670168001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,34 +9521,34 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>547014.02853</v>
+        <v>412886.0183654</v>
       </c>
       <c r="U22" t="n">
-        <v>95031.015155</v>
+        <v>65863.3525835</v>
       </c>
       <c r="V22" t="n">
-        <v>78324.057464</v>
+        <v>54006.7483778</v>
       </c>
       <c r="W22" t="n">
-        <v>2660</v>
+        <v>2180</v>
       </c>
       <c r="X22" t="n">
         <v>720</v>
@@ -9037,7 +9557,7 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2310</v>
+        <v>1600</v>
       </c>
       <c r="AA22" t="n">
         <v>2880</v>
@@ -9049,25 +9569,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>848756.401555</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>106434.8528089</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>96891.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1189624.9543639</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,20 +9670,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>690825.3806436</v>
+        <v>476773.435969</v>
       </c>
       <c r="U23" t="n">
-        <v>130215.7867505</v>
+        <v>77818.66172100001</v>
       </c>
       <c r="V23" t="n">
-        <v>106311.6812018</v>
+        <v>64529.5518518</v>
       </c>
       <c r="W23" t="n">
-        <v>3300</v>
+        <v>2340</v>
       </c>
       <c r="X23" t="n">
         <v>720</v>
@@ -9148,7 +9692,7 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2790</v>
+        <v>2070</v>
       </c>
       <c r="AA23" t="n">
         <v>2880</v>
@@ -9160,25 +9704,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>927540.177305</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>171691.19768675</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>153419</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1397173.62499175</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>45</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>547014.02853</v>
+      </c>
+      <c r="U24" t="n">
+        <v>95031.015155</v>
+      </c>
+      <c r="V24" t="n">
+        <v>78324.057464</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2660</v>
+      </c>
+      <c r="X24" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2310</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1051758.3299</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>194632.6836175</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>262506.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1666229.8635175</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>45</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>690825.3806436</v>
+      </c>
+      <c r="U25" t="n">
+        <v>130215.7867505</v>
+      </c>
+      <c r="V25" t="n">
+        <v>106311.6812018</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3300</v>
+      </c>
+      <c r="X25" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1309430.078765</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>242178.2473674</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>480680.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2215208.9761324</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/45.xlsx
+++ b/opm_hero_property/heroes/45.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,43312;31,8196;41,2750</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,8266</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,12294;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5265;31,984;41,387</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1165</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1476;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>43312.57000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>8196.265000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2750.2247</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>8266.4347</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>12294.3975</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>5265.715</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>984.4450000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>387.6343</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>1165.1243</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>1476.6675</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,43317;31,8197;41,2750</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,8267</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,12296;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5270;31,985;41,388</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1166</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1478;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>43317.01500000001</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>8197.490000000002</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2750.6784</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>8267.7984</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>12296.235</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>5270.160000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>985.6700000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>388.088</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>1166.488</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>1478.505</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,46425;31,9056;41,3181</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,9563</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,13584;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5604;31,1078;41,435</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1309</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1617;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>46425.415883</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>9056.6362565</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3181.76955529</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>9563.542302289999</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>13584.95438475</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>5604.945153500001</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1078.1997905</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>435.7307333700001</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>1309.68922437</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>1617.29968575</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,49951;31,10030;41,3669</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,11030</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,15045;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5984;31,1182;41,489</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1471</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1774;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>49951.083812</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>10030.387234</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3669.90757003</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>11030.75369903</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>15045.580851</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>5984.138174000001</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1182.926458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>489.62463259</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>1471.67976959</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>1774.389687</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,54094;31,11175;41,4256</t>
+          <t>21,54094;31,11175;41,4244</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,54094;31,11175;41,4256</t>
+          <t>21,0;31,0;41,12758</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,27047;31,5587;41,2128</t>
+          <t>21,0;31,16763;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6429;31,1305;41,554</t>
+          <t>21,6429;31,1305;41,553</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6429;31,1305;41,554</t>
+          <t>21,0;31,0;41,1662</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3214;31,652;41,277</t>
+          <t>21,0;31,1958;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>54094</v>
+        <v>54094.62665600001</v>
       </c>
       <c r="O6" t="n">
-        <v>11175</v>
+        <v>11175.3432175</v>
       </c>
       <c r="P6" t="n">
-        <v>4256</v>
+        <v>4244.57944375</v>
       </c>
       <c r="Q6" t="n">
-        <v>54094</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11175</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4256</v>
+        <v>12758.06256875</v>
       </c>
       <c r="T6" t="n">
-        <v>27047</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5587</v>
+        <v>16763.01482625</v>
       </c>
       <c r="V6" t="n">
-        <v>2128</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6429</v>
+        <v>6429.526712</v>
       </c>
       <c r="X6" t="n">
-        <v>1305</v>
+        <v>1305.9675475</v>
       </c>
       <c r="Y6" t="n">
-        <v>554</v>
+        <v>553.03194375</v>
       </c>
       <c r="Z6" t="n">
-        <v>6429</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1305</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>554</v>
+        <v>1662.26506875</v>
       </c>
       <c r="AC6" t="n">
-        <v>3214</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>652</v>
+        <v>1958.95132125</v>
       </c>
       <c r="AE6" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,60816;31,12493;41,5460</t>
+          <t>21,60816;31,12493;41,5444</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,60816;31,12493;41,5460</t>
+          <t>21,0;31,0;41,16365</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,30408;31,6246;41,2730</t>
+          <t>21,0;31,18740;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7159;31,1449;41,688</t>
+          <t>21,7159;31,1449;41,686</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7159;31,1449;41,688</t>
+          <t>21,0;31,0;41,2062</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3579;31,724;41,344</t>
+          <t>21,0;31,2173;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>60816</v>
+        <v>60816.664181</v>
       </c>
       <c r="O7" t="n">
-        <v>12493</v>
+        <v>12493.429207</v>
       </c>
       <c r="P7" t="n">
-        <v>5460</v>
+        <v>5444.818126429999</v>
       </c>
       <c r="Q7" t="n">
-        <v>60816</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12493</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5460</v>
+        <v>16365.65677543</v>
       </c>
       <c r="T7" t="n">
-        <v>30408</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6246</v>
+        <v>18740.1438105</v>
       </c>
       <c r="V7" t="n">
-        <v>2730</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7159</v>
+        <v>7159.184574500001</v>
       </c>
       <c r="X7" t="n">
-        <v>1449</v>
+        <v>1449.248059</v>
       </c>
       <c r="Y7" t="n">
-        <v>688</v>
+        <v>686.32480179</v>
       </c>
       <c r="Z7" t="n">
-        <v>7159</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1449</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>688</v>
+        <v>2062.90749879</v>
       </c>
       <c r="AC7" t="n">
-        <v>3579</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>724</v>
+        <v>2173.8720885</v>
       </c>
       <c r="AE7" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,69502;31,13983;41,7124</t>
+          <t>21,69502;31,13983;41,7104</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,69502;31,13983;41,7124</t>
+          <t>21,0;31,0;41,21354</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,34751;31,6991;41,3562</t>
+          <t>21,0;31,20975;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8098;31,1610;41,872</t>
+          <t>21,8098;31,1610;41,870</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,8098;31,1610;41,872</t>
+          <t>21,0;31,0;41,2615</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,4049;31,805;41,436</t>
+          <t>21,0;31,2415;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>69502</v>
+        <v>69502.08495300001</v>
       </c>
       <c r="O8" t="n">
-        <v>13983</v>
+        <v>13983.6343535</v>
       </c>
       <c r="P8" t="n">
-        <v>7124</v>
+        <v>7104.43402701</v>
       </c>
       <c r="Q8" t="n">
-        <v>69502</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13983</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>7124</v>
+        <v>21354.01517001</v>
       </c>
       <c r="T8" t="n">
-        <v>34751</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6991</v>
+        <v>20975.45153025</v>
       </c>
       <c r="V8" t="n">
-        <v>3562</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>8098</v>
+        <v>8098.265668500001</v>
       </c>
       <c r="X8" t="n">
-        <v>1610</v>
+        <v>1610.3147795</v>
       </c>
       <c r="Y8" t="n">
-        <v>872</v>
+        <v>870.26673853</v>
       </c>
       <c r="Z8" t="n">
-        <v>8098</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1610</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>872</v>
+        <v>2615.78741753</v>
       </c>
       <c r="AC8" t="n">
-        <v>4049</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>805</v>
+        <v>2415.47216925</v>
       </c>
       <c r="AE8" t="n">
-        <v>436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,80669;31,15701;41,9365</t>
+          <t>21,80669;31,15701;41,9338</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,80669;31,15701;41,9365</t>
+          <t>21,0;31,0;41,28069</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,40334;31,7850;41,4682</t>
+          <t>21,0;31,23552;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9301;31,1795;41,1120</t>
+          <t>21,9301;31,1795;41,1117</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9301;31,1795;41,1120</t>
+          <t>21,0;31,0;41,3358</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4650;31,897;41,560</t>
+          <t>21,0;31,2692;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>80669</v>
+        <v>80669.57386600001</v>
       </c>
       <c r="O9" t="n">
-        <v>15701</v>
+        <v>15701.7168665</v>
       </c>
       <c r="P9" t="n">
-        <v>9365</v>
+        <v>9338.60323554</v>
       </c>
       <c r="Q9" t="n">
-        <v>80669</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15701</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>9365</v>
+        <v>28069.32605754</v>
       </c>
       <c r="T9" t="n">
-        <v>40334</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>7850</v>
+        <v>23552.57529975</v>
       </c>
       <c r="V9" t="n">
-        <v>4682</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9301</v>
+        <v>9301.283256999999</v>
       </c>
       <c r="X9" t="n">
-        <v>1795</v>
+        <v>1795.1643605</v>
       </c>
       <c r="Y9" t="n">
-        <v>1120</v>
+        <v>1117.26116162</v>
       </c>
       <c r="Z9" t="n">
-        <v>9301</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1795</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1120</v>
+        <v>3358.18612762</v>
       </c>
       <c r="AC9" t="n">
-        <v>4650</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>897</v>
+        <v>2692.74654075</v>
       </c>
       <c r="AE9" t="n">
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,89039;31,16617;41,11230</t>
+          <t>21,89039;31,16617;41,11198</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,89039;31,16617;41,11230</t>
+          <t>21,0;31,0;41,33660</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,44519;31,8308;41,5615</t>
+          <t>21,0;31,24925;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10202;31,1893;41,1326</t>
+          <t>21,10202;31,1893;41,1322</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,10202;31,1893;41,1326</t>
+          <t>21,0;31,0;41,3976</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,5101;31,946;41,663</t>
+          <t>21,0;31,2840;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>89039</v>
+        <v>89039.83326700001</v>
       </c>
       <c r="O10" t="n">
-        <v>16617</v>
+        <v>16617.253408</v>
       </c>
       <c r="P10" t="n">
-        <v>11230</v>
+        <v>11198.79794823</v>
       </c>
       <c r="Q10" t="n">
-        <v>89039</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>16617</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>11230</v>
+        <v>33660.57033723</v>
       </c>
       <c r="T10" t="n">
-        <v>44519</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8308</v>
+        <v>24925.880112</v>
       </c>
       <c r="V10" t="n">
-        <v>5615</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10202</v>
+        <v>10202.9450215</v>
       </c>
       <c r="X10" t="n">
-        <v>1893</v>
+        <v>1893.601696</v>
       </c>
       <c r="Y10" t="n">
-        <v>1326</v>
+        <v>1322.93381719</v>
       </c>
       <c r="Z10" t="n">
-        <v>10202</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1893</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1326</v>
+        <v>3976.38273419</v>
       </c>
       <c r="AC10" t="n">
-        <v>5101</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>946</v>
+        <v>2840.402544</v>
       </c>
       <c r="AE10" t="n">
-        <v>663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,99250;31,17705;41,13521</t>
+          <t>21,99250;31,17705;41,13482</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,99250;31,17705;41,13521</t>
+          <t>21,0;31,0;41,40526</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,49625;31,8852;41,6760</t>
+          <t>21,0;31,26558;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11301;31,2010;41,1579</t>
+          <t>21,11301;31,2010;41,1575</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,11301;31,2010;41,1579</t>
+          <t>21,0;31,0;41,4734</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5650;31,1005;41,789</t>
+          <t>21,0;31,3015;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>99250</v>
+        <v>99250.52393200001</v>
       </c>
       <c r="O11" t="n">
-        <v>17705</v>
+        <v>17705.5041065</v>
       </c>
       <c r="P11" t="n">
-        <v>13521</v>
+        <v>13482.94082623</v>
       </c>
       <c r="Q11" t="n">
-        <v>99250</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>17705</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13521</v>
+        <v>40526.08861523</v>
       </c>
       <c r="T11" t="n">
-        <v>49625</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8852</v>
+        <v>26558.25615975</v>
       </c>
       <c r="V11" t="n">
-        <v>6760</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>11301</v>
+        <v>11301.413914</v>
       </c>
       <c r="X11" t="n">
-        <v>2010</v>
+        <v>2010.4202405</v>
       </c>
       <c r="Y11" t="n">
-        <v>1579</v>
+        <v>1575.24895119</v>
       </c>
       <c r="Z11" t="n">
-        <v>11301</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>2010</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1579</v>
+        <v>4734.77406819</v>
       </c>
       <c r="AC11" t="n">
-        <v>5650</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1005</v>
+        <v>3015.63036075</v>
       </c>
       <c r="AE11" t="n">
-        <v>789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,118061;31,19994;41,17597</t>
+          <t>21,118061;31,19994;41,17547</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,118061;31,19994;41,17597</t>
+          <t>21,0;31,0;41,52743</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,59030;31,9997;41,8798</t>
+          <t>21,0;31,29992;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,13322;31,2256;41,2029</t>
+          <t>21,13322;31,2256;41,2023</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,13322;31,2256;41,2029</t>
+          <t>21,0;31,0;41,6082</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6661;31,1128;41,1014</t>
+          <t>21,0;31,3384;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>118061</v>
+        <v>118061.629483</v>
       </c>
       <c r="O12" t="n">
-        <v>19994</v>
+        <v>19994.9610735</v>
       </c>
       <c r="P12" t="n">
-        <v>17597</v>
+        <v>17547.63655061</v>
       </c>
       <c r="Q12" t="n">
-        <v>118061</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19994</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>17597</v>
+        <v>52743.46917360999</v>
       </c>
       <c r="T12" t="n">
-        <v>59030</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>9997</v>
+        <v>29992.44161025</v>
       </c>
       <c r="V12" t="n">
-        <v>8798</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>13322</v>
+        <v>13322.4423535</v>
       </c>
       <c r="X12" t="n">
-        <v>2256</v>
+        <v>2256.0474195</v>
       </c>
       <c r="Y12" t="n">
-        <v>2029</v>
+        <v>2023.76380933</v>
       </c>
       <c r="Z12" t="n">
-        <v>13322</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2256</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>2029</v>
+        <v>6082.88892833</v>
       </c>
       <c r="AC12" t="n">
-        <v>6661</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1128</v>
+        <v>3384.07112925</v>
       </c>
       <c r="AE12" t="n">
-        <v>1014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,120971;31,20454;41,18175</t>
+          <t>21,120971;31,20454;41,18123</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,120971;31,20454;41,18175</t>
+          <t>21,0;31,0;41,54474</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,60485;31,10227;41,9087</t>
+          <t>21,0;31,30682;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,13644;31,2306;41,2094</t>
+          <t>21,13644;31,2306;41,2088</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,13644;31,2306;41,2094</t>
+          <t>21,0;31,0;41,6278</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6822;31,1153;41,1047</t>
+          <t>21,0;31,3460;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>120971</v>
+        <v>120971.126843</v>
       </c>
       <c r="O13" t="n">
-        <v>20454</v>
+        <v>20454.812882</v>
       </c>
       <c r="P13" t="n">
-        <v>18175</v>
+        <v>18123.6135901</v>
       </c>
       <c r="Q13" t="n">
-        <v>120971</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20454</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18175</v>
+        <v>54474.7010201</v>
       </c>
       <c r="T13" t="n">
-        <v>60485</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10227</v>
+        <v>30682.219323</v>
       </c>
       <c r="V13" t="n">
-        <v>9087</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>13644</v>
+        <v>13644.7535735</v>
       </c>
       <c r="X13" t="n">
-        <v>2306</v>
+        <v>2306.989034</v>
       </c>
       <c r="Y13" t="n">
-        <v>2094</v>
+        <v>2088.7125453</v>
       </c>
       <c r="Z13" t="n">
-        <v>13644</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2306</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>2094</v>
+        <v>6278.1073353</v>
       </c>
       <c r="AC13" t="n">
-        <v>6822</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1153</v>
+        <v>3460.483551</v>
       </c>
       <c r="AE13" t="n">
-        <v>1047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,123884;31,20914;41,18753</t>
+          <t>21,123884;31,20914;41,18699</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,123884;31,20914;41,18753</t>
+          <t>21,0;31,0;41,56205</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,61942;31,10457;41,9376</t>
+          <t>21,0;31,31371;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13967;31,2357;41,2159</t>
+          <t>21,13967;31,2357;41,2153</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13967;31,2357;41,2159</t>
+          <t>21,0;31,0;41,6473</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6983;31,1178;41,1079</t>
+          <t>21,0;31,3536;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>123884</v>
+        <v>123884.91703</v>
       </c>
       <c r="O14" t="n">
-        <v>20914</v>
+        <v>20914.6646905</v>
       </c>
       <c r="P14" t="n">
-        <v>18753</v>
+        <v>18699.55572959</v>
       </c>
       <c r="Q14" t="n">
-        <v>123884</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>20914</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18753</v>
+        <v>56205.82796659</v>
       </c>
       <c r="T14" t="n">
-        <v>61942</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10457</v>
+        <v>31371.99703575</v>
       </c>
       <c r="V14" t="n">
-        <v>9376</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13967</v>
+        <v>13967.552935</v>
       </c>
       <c r="X14" t="n">
-        <v>2357</v>
+        <v>2357.9306485</v>
       </c>
       <c r="Y14" t="n">
-        <v>2159</v>
+        <v>2153.62638127</v>
       </c>
       <c r="Z14" t="n">
-        <v>13967</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2357</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>2159</v>
+        <v>6473.22084227</v>
       </c>
       <c r="AC14" t="n">
-        <v>6983</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1178</v>
+        <v>3536.895972749999</v>
       </c>
       <c r="AE14" t="n">
-        <v>1079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,126798;31,21374;41,19331</t>
+          <t>21,126798;31,21374;41,19275</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,126798;31,21374;41,19331</t>
+          <t>21,0;31,0;41,57937</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,63399;31,10687;41,9665</t>
+          <t>21,0;31,32061;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,14290;31,2408;41,2224</t>
+          <t>21,14290;31,2408;41,2218</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,14290;31,2408;41,2224</t>
+          <t>21,0;31,0;41,6668</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,7145;31,1204;41,1112</t>
+          <t>21,0;31,3613;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>126798</v>
+        <v>126798.707217</v>
       </c>
       <c r="O15" t="n">
-        <v>21374</v>
+        <v>21374.481499</v>
       </c>
       <c r="P15" t="n">
-        <v>19331</v>
+        <v>19275.79810331</v>
       </c>
       <c r="Q15" t="n">
-        <v>126798</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21374</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>19331</v>
+        <v>57937.85733631</v>
       </c>
       <c r="T15" t="n">
-        <v>63399</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>10687</v>
+        <v>32061.7222485</v>
       </c>
       <c r="V15" t="n">
-        <v>9665</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>14290</v>
+        <v>14290.3522965</v>
       </c>
       <c r="X15" t="n">
-        <v>2408</v>
+        <v>2408.837263</v>
       </c>
       <c r="Y15" t="n">
-        <v>2224</v>
+        <v>2218.60419243</v>
       </c>
       <c r="Z15" t="n">
-        <v>14290</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2408</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>2224</v>
+        <v>6668.526641429999</v>
       </c>
       <c r="AC15" t="n">
-        <v>7145</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1204</v>
+        <v>3613.2558945</v>
       </c>
       <c r="AE15" t="n">
-        <v>1112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,129708;31,21834;41,19908</t>
+          <t>21,129708;31,21834;41,19851</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,129708;31,21834;41,19908</t>
+          <t>21,0;31,0;41,59669</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,64854;31,10917;41,9954</t>
+          <t>21,0;31,32751;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,14612;31,2459;41,2290</t>
+          <t>21,14612;31,2459;41,2283</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,14612;31,2459;41,2290</t>
+          <t>21,0;31,0;41,6863</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7306;31,1229;41,1145</t>
+          <t>21,0;31,3689;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>129708</v>
+        <v>129708.239577</v>
       </c>
       <c r="O16" t="n">
-        <v>21834</v>
+        <v>21834.3333075</v>
       </c>
       <c r="P16" t="n">
-        <v>19908</v>
+        <v>19851.7751428</v>
       </c>
       <c r="Q16" t="n">
-        <v>129708</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21834</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>19908</v>
+        <v>59669.08918279999</v>
       </c>
       <c r="T16" t="n">
-        <v>64854</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>10917</v>
+        <v>32751.49996125</v>
       </c>
       <c r="V16" t="n">
-        <v>9954</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14612</v>
+        <v>14612.6985165</v>
       </c>
       <c r="X16" t="n">
-        <v>2459</v>
+        <v>2459.7788775</v>
       </c>
       <c r="Y16" t="n">
-        <v>2290</v>
+        <v>2283.5529284</v>
       </c>
       <c r="Z16" t="n">
-        <v>14612</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2459</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2290</v>
+        <v>6863.745048399999</v>
       </c>
       <c r="AC16" t="n">
-        <v>7306</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1229</v>
+        <v>3689.66831625</v>
       </c>
       <c r="AE16" t="n">
-        <v>1145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,132621;31,22293;41,20486</t>
+          <t>21,132621;31,22293;41,20427</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,132621;31,22293;41,20486</t>
+          <t>21,0;31,0;41,61400</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,66310;31,11146;41,10243</t>
+          <t>21,0;31,33440;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14935;31,2510;41,2355</t>
+          <t>21,14935;31,2510;41,2348</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14935;31,2510;41,2355</t>
+          <t>21,0;31,0;41,7058</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7467;31,1255;41,1177</t>
+          <t>21,0;31,3765;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>132621</v>
+        <v>132621.994764</v>
       </c>
       <c r="O17" t="n">
-        <v>22293</v>
+        <v>22293.3430405</v>
       </c>
       <c r="P17" t="n">
-        <v>20486</v>
+        <v>20427.75218229</v>
       </c>
       <c r="Q17" t="n">
-        <v>132621</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>22293</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>20486</v>
+        <v>61400.32102928999</v>
       </c>
       <c r="T17" t="n">
-        <v>66310</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>11146</v>
+        <v>33440.01456075</v>
       </c>
       <c r="V17" t="n">
-        <v>10243</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14935</v>
+        <v>14935.462878</v>
       </c>
       <c r="X17" t="n">
-        <v>2510</v>
+        <v>2510.5995985</v>
       </c>
       <c r="Y17" t="n">
-        <v>2355</v>
+        <v>2348.50166437</v>
       </c>
       <c r="Z17" t="n">
-        <v>14935</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2510</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2355</v>
+        <v>7058.96345537</v>
       </c>
       <c r="AC17" t="n">
-        <v>7467</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1255</v>
+        <v>3765.89939775</v>
       </c>
       <c r="AE17" t="n">
-        <v>1177</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5107,13 +5107,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7724</v>
+        <v>7426</v>
       </c>
       <c r="C2" t="n">
-        <v>1441</v>
+        <v>1248</v>
       </c>
       <c r="D2" t="n">
-        <v>852</v>
+        <v>1147</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
@@ -5122,52 +5122,52 @@
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="n">
-        <v>7724</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1441</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>852</v>
+        <v>3934</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="N2" t="n">
-        <v>3862</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>720</v>
+        <v>1614</v>
       </c>
       <c r="P2" t="n">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>3775</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>698</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>455</v>
       </c>
       <c r="W2" t="n">
         <v>35</v>
@@ -5176,72 +5176,72 @@
         <v>35</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>1561</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>903</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7724;31,1441;41,852;22,40;32,40;42,40</t>
+          <t>21,7426;31,1248;41,1147;22,40;32,40;42,39</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,7724;31,1441;41,852;22,40;32,40;42,40</t>
+          <t>21,0;31,0;41,3934;22,0;32,0;42,119</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3862;31,720;41,426;22,20;32,20;42,20</t>
+          <t>21,0;31,1614;41,0;22,0;32,60;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,3775;31,698;41,455;22,35;32,35;42,34</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,0;31,0;41,1561;22,0;32,0;42,104</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,0;31,903;41,0;22,0;32,51;42,0</t>
         </is>
       </c>
     </row>
@@ -5250,13 +5250,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15578</v>
+        <v>14853</v>
       </c>
       <c r="C3" t="n">
-        <v>2767</v>
+        <v>2496</v>
       </c>
       <c r="D3" t="n">
-        <v>1831</v>
+        <v>2294</v>
       </c>
       <c r="E3" t="n">
         <v>80</v>
@@ -5265,52 +5265,52 @@
         <v>80</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" t="n">
-        <v>15578</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2767</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1831</v>
+        <v>7868</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="N3" t="n">
-        <v>7789</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1383</v>
+        <v>3229</v>
       </c>
       <c r="P3" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>4360</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>774</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>567</v>
       </c>
       <c r="W3" t="n">
         <v>70</v>
@@ -5319,72 +5319,72 @@
         <v>70</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>1945</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>1001</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,15578;31,2767;41,1831;22,80;32,80;42,80</t>
+          <t>21,14853;31,2496;41,2294;22,80;32,80;42,79</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,15578;31,2767;41,1831;22,80;32,80;42,80</t>
+          <t>21,0;31,0;41,7868;22,0;32,0;42,239</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,7789;31,1383;41,915;22,40;32,40;42,40</t>
+          <t>21,0;31,3229;41,0;22,0;32,120;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,4360;31,774;41,567;22,70;32,70;42,69</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,0;31,0;41,1945;22,0;32,0;42,209</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,0;31,1001;41,0;22,0;32,105;42,0</t>
         </is>
       </c>
     </row>
@@ -5393,13 +5393,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23346</v>
+        <v>22280</v>
       </c>
       <c r="C4" t="n">
-        <v>3955</v>
+        <v>3745</v>
       </c>
       <c r="D4" t="n">
-        <v>2982</v>
+        <v>3441</v>
       </c>
       <c r="E4" t="n">
         <v>120</v>
@@ -5408,52 +5408,52 @@
         <v>120</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" t="n">
-        <v>23346</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3955</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2982</v>
+        <v>11803</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>359</v>
       </c>
       <c r="N4" t="n">
-        <v>11673</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1977</v>
+        <v>4844</v>
       </c>
       <c r="P4" t="n">
-        <v>1491</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>5357</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>907</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>762</v>
       </c>
       <c r="W4" t="n">
         <v>105</v>
@@ -5462,72 +5462,72 @@
         <v>105</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>2616</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>314</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>1173</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,23346;31,3955;41,2982;22,120;32,120;42,120</t>
+          <t>21,22280;31,3745;41,3441;22,120;32,120;42,119</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,23346;31,3955;41,2982;22,120;32,120;42,120</t>
+          <t>21,0;31,0;41,11803;22,0;32,0;42,359</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,11673;31,1977;41,1491;22,60;32,60;42,60</t>
+          <t>21,0;31,4844;41,0;22,0;32,180;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,5357;31,907;41,762;22,105;32,105;42,104</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,0;31,0;41,2616;22,0;32,0;42,314</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,0;31,1173;41,0;22,0;32,156;42,0</t>
         </is>
       </c>
     </row>
@@ -5536,13 +5536,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31066</v>
+        <v>29707</v>
       </c>
       <c r="C5" t="n">
-        <v>5253</v>
+        <v>4993</v>
       </c>
       <c r="D5" t="n">
-        <v>4016</v>
+        <v>4588</v>
       </c>
       <c r="E5" t="n">
         <v>160</v>
@@ -5551,52 +5551,52 @@
         <v>160</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" t="n">
-        <v>31066</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5253</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4016</v>
+        <v>15737</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>479</v>
       </c>
       <c r="N5" t="n">
-        <v>15533</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2626</v>
+        <v>6459</v>
       </c>
       <c r="P5" t="n">
-        <v>2008</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>5746</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>971</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>831</v>
       </c>
       <c r="W5" t="n">
         <v>140</v>
@@ -5605,72 +5605,72 @@
         <v>140</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>2850</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>419</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>1256</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,31066;31,5253;41,4016;22,160;32,160;42,160</t>
+          <t>21,29707;31,4993;41,4588;22,160;32,160;42,159</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,31066;31,5253;41,4016;22,160;32,160;42,160</t>
+          <t>21,0;31,0;41,15737;22,0;32,0;42,479</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,15533;31,2626;41,2008;22,80;32,80;42,80</t>
+          <t>21,0;31,6459;41,0;22,0;32,240;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,5746;31,971;41,831;22,140;32,140;42,139</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,2850;22,0;32,0;42,419</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,0;31,1256;41,0;22,0;32,210;42,0</t>
         </is>
       </c>
     </row>
@@ -5679,13 +5679,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38762</v>
+        <v>37134</v>
       </c>
       <c r="C6" t="n">
-        <v>6543</v>
+        <v>6242</v>
       </c>
       <c r="D6" t="n">
-        <v>5069</v>
+        <v>5736</v>
       </c>
       <c r="E6" t="n">
         <v>200</v>
@@ -5694,52 +5694,52 @@
         <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H6" t="n">
-        <v>38762</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6543</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5069</v>
+        <v>19672</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>599</v>
       </c>
       <c r="N6" t="n">
-        <v>19381</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3271</v>
+        <v>8074</v>
       </c>
       <c r="P6" t="n">
-        <v>2534</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>6160</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>1040</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>904</v>
       </c>
       <c r="W6" t="n">
         <v>175</v>
@@ -5748,72 +5748,72 @@
         <v>175</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>3101</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>524</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>1345</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,38762;31,6543;41,5069;22,200;32,200;42,200</t>
+          <t>21,37134;31,6242;41,5736;22,200;32,200;42,199</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,38762;31,6543;41,5069;22,200;32,200;42,200</t>
+          <t>21,0;31,0;41,19672;22,0;32,0;42,599</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,19381;31,3271;41,2534;22,100;32,100;42,100</t>
+          <t>21,0;31,8074;41,0;22,0;32,300;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,6160;31,1040;41,904;22,175;32,175;42,174</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,3101;22,0;32,0;42,524</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,0;31,1345;41,0;22,0;32,261;42,0</t>
         </is>
       </c>
     </row>
@@ -5822,13 +5822,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>45210</v>
+        <v>44560</v>
       </c>
       <c r="C7" t="n">
-        <v>7620</v>
+        <v>7490</v>
       </c>
       <c r="D7" t="n">
-        <v>6576</v>
+        <v>6883</v>
       </c>
       <c r="E7" t="n">
         <v>240</v>
@@ -5837,52 +5837,52 @@
         <v>240</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H7" t="n">
-        <v>45210</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7620</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6576</v>
+        <v>23606</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>719</v>
       </c>
       <c r="N7" t="n">
-        <v>22605</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3810</v>
+        <v>9688</v>
       </c>
       <c r="P7" t="n">
-        <v>3288</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>6602</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1112</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="W7" t="n">
         <v>210</v>
@@ -5891,72 +5891,72 @@
         <v>210</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>3371</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>629</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>1439</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,45210;31,7620;41,6576;22,240;32,240;42,240</t>
+          <t>21,44560;31,7490;41,6883;22,240;32,240;42,239</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,45210;31,7620;41,6576;22,240;32,240;42,240</t>
+          <t>21,0;31,0;41,23606;22,0;32,0;42,719</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,22605;31,3810;41,3288;22,120;32,120;42,120</t>
+          <t>21,0;31,9688;41,0;22,0;32,360;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,6602;31,1112;41,983;22,210;32,210;42,209</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,0;31,0;41,3371;22,0;32,0;42,629</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,0;31,1439;41,0;22,0;32,315;42,0</t>
         </is>
       </c>
     </row>
@@ -5965,13 +5965,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51645</v>
+        <v>51987</v>
       </c>
       <c r="C8" t="n">
-        <v>8693</v>
+        <v>8738</v>
       </c>
       <c r="D8" t="n">
-        <v>8093</v>
+        <v>8030</v>
       </c>
       <c r="E8" t="n">
         <v>280</v>
@@ -5980,52 +5980,52 @@
         <v>280</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H8" t="n">
-        <v>51645</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8693</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>8093</v>
+        <v>27540</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>839</v>
       </c>
       <c r="N8" t="n">
-        <v>25822</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4346</v>
+        <v>11303</v>
       </c>
       <c r="P8" t="n">
-        <v>4046</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>7071</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>1190</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1067</v>
       </c>
       <c r="W8" t="n">
         <v>245</v>
@@ -6034,72 +6034,72 @@
         <v>245</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>3661</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>734</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>1539</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>366</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,51645;31,8693;41,8093;22,280;32,280;42,280</t>
+          <t>21,51987;31,8738;41,8030;22,280;32,280;42,279</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,51645;31,8693;41,8093;22,280;32,280;42,280</t>
+          <t>21,0;31,0;41,27540;22,0;32,0;42,839</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,25822;31,4346;41,4046;22,140;32,140;42,140</t>
+          <t>21,0;31,11303;41,0;22,0;32,420;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,7071;31,1190;41,1067;22,245;32,245;42,244</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,0;31,0;41,3661;22,0;32,0;42,734</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,0;31,1539;41,0;22,0;32,366;42,0</t>
         </is>
       </c>
     </row>
@@ -6108,13 +6108,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>58577</v>
+        <v>59414</v>
       </c>
       <c r="C9" t="n">
-        <v>9846</v>
+        <v>9987</v>
       </c>
       <c r="D9" t="n">
-        <v>9438</v>
+        <v>9177</v>
       </c>
       <c r="E9" t="n">
         <v>315</v>
@@ -6123,52 +6123,52 @@
         <v>315</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H9" t="n">
-        <v>58577</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9846</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>9438</v>
+        <v>31475</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>944</v>
       </c>
       <c r="N9" t="n">
-        <v>29288</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4923</v>
+        <v>12918</v>
       </c>
       <c r="P9" t="n">
-        <v>4719</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>471</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>7859</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1321</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1210</v>
       </c>
       <c r="W9" t="n">
         <v>280</v>
@@ -6177,72 +6177,72 @@
         <v>280</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>4150</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>839</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>1708</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,58577;31,9846;41,9438;22,315;32,315;42,315</t>
+          <t>21,59414;31,9987;41,9177;22,315;32,315;42,314</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,58577;31,9846;41,9438;22,315;32,315;42,315</t>
+          <t>21,0;31,0;41,31475;22,0;32,0;42,944</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,29288;31,4923;41,4719;22,157;32,157;42,157</t>
+          <t>21,0;31,12918;41,0;22,0;32,471;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,7859;31,1321;41,1210;22,280;32,280;42,279</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,0;31,0;41,4150;22,0;32,0;42,839</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,0;31,1708;41,0;22,0;32,420;42,0</t>
         </is>
       </c>
     </row>
@@ -6251,13 +6251,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>66487</v>
+        <v>66841</v>
       </c>
       <c r="C10" t="n">
-        <v>11176</v>
+        <v>11235</v>
       </c>
       <c r="D10" t="n">
-        <v>10395</v>
+        <v>10324</v>
       </c>
       <c r="E10" t="n">
         <v>335</v>
@@ -6266,52 +6266,52 @@
         <v>335</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H10" t="n">
-        <v>66487</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>11176</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10395</v>
+        <v>35409</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>1004</v>
       </c>
       <c r="N10" t="n">
-        <v>33243</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5588</v>
+        <v>14533</v>
       </c>
       <c r="P10" t="n">
-        <v>5197</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>501</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>8509</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>1430</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1326</v>
       </c>
       <c r="W10" t="n">
         <v>315</v>
@@ -6320,72 +6320,72 @@
         <v>315</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>4549</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>944</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>1850</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>471</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,66487;31,11176;41,10395;22,335;32,335;42,335</t>
+          <t>21,66841;31,11235;41,10324;22,335;32,335;42,334</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,66487;31,11176;41,10395;22,335;32,335;42,335</t>
+          <t>21,0;31,0;41,35409;22,0;32,0;42,1004</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,33243;31,5588;41,5197;22,167;32,167;42,167</t>
+          <t>21,0;31,14533;41,0;22,0;32,501;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,8509;31,1430;41,1326;22,315;32,315;42,314</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,0;31,0;41,4549;22,0;32,0;42,944</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,0;31,1850;41,0;22,0;32,471;42,0</t>
         </is>
       </c>
     </row>
@@ -6409,52 +6409,52 @@
         <v>350</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H11" t="n">
-        <v>74268</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12484</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11472</v>
+        <v>39344</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>1049</v>
       </c>
       <c r="N11" t="n">
-        <v>37134</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6242</v>
+        <v>16148</v>
       </c>
       <c r="P11" t="n">
-        <v>5736</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>525</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>9174</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>1542</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1446</v>
       </c>
       <c r="W11" t="n">
         <v>350</v>
@@ -6463,72 +6463,72 @@
         <v>350</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>4961</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>1049</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>1994</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>525</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,74268;31,12484;41,11472;22,350;32,350;42,350</t>
+          <t>21,74268;31,12484;41,11472;22,350;32,350;42,349</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,74268;31,12484;41,11472;22,350;32,350;42,350</t>
+          <t>21,0;31,0;41,39344;22,0;32,0;42,1049</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,37134;31,6242;41,5736;22,175;32,175;42,175</t>
+          <t>21,0;31,16148;41,0;22,0;32,525;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,9174;31,1542;41,1446;22,350;32,350;42,349</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,0;31,0;41,4961;22,0;32,0;42,1049</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,0;31,1994;41,0;22,0;32,525;42,0</t>
         </is>
       </c>
     </row>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5442584.2179368</v>
+        <v>5649474.2127008</v>
       </c>
       <c r="U2" t="n">
-        <v>892668.3203364999</v>
+        <v>927445.6633769999</v>
       </c>
       <c r="V2" t="n">
-        <v>811590.3807505999</v>
+        <v>843490.1329328899</v>
       </c>
       <c r="W2" t="n">
         <v>3300</v>
@@ -6886,8 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,100744</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,49588;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11550602.062245</v>
       </c>
@@ -6907,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>630277.2367916175</v>
       </c>
       <c r="AS2" t="n">
-        <v>16283242.8175746</v>
+        <v>16913520.05436622</v>
       </c>
     </row>
     <row r="3">
@@ -6974,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>690825.3806436</v>
+        <v>714934.8435216</v>
       </c>
       <c r="U3" t="n">
-        <v>130215.7867505</v>
+        <v>134268.386349</v>
       </c>
       <c r="V3" t="n">
-        <v>106311.6812018</v>
+        <v>110106.18286617</v>
       </c>
       <c r="W3" t="n">
         <v>3300</v>
@@ -7021,8 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,12019</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,5759;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1309430.078765</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>73890.7846777775</v>
       </c>
       <c r="AS3" t="n">
-        <v>2215208.9761324</v>
+        <v>2289099.760810178</v>
       </c>
     </row>
     <row r="4">
@@ -7514,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>59568.0268</v>
+        <v>67154.31490719999</v>
       </c>
       <c r="U7" t="n">
-        <v>9702.4</v>
+        <v>10979.9616</v>
       </c>
       <c r="V7" t="n">
-        <v>6040.478</v>
+        <v>7204.7724642</v>
       </c>
       <c r="W7" t="n">
         <v>980</v>
@@ -7561,8 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,3986</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,1658;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>117389.0353</v>
       </c>
@@ -7582,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>23096.15631635</v>
       </c>
       <c r="AS7" t="n">
-        <v>165997.8353</v>
+        <v>189093.99161635</v>
       </c>
     </row>
     <row r="8">
@@ -7649,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>59848.5309876</v>
+        <v>75022.107202</v>
       </c>
       <c r="U8" t="n">
-        <v>9739.351999999999</v>
+        <v>12294.4752</v>
       </c>
       <c r="V8" t="n">
-        <v>6067.084868</v>
+        <v>8396.117244199999</v>
       </c>
       <c r="W8" t="n">
         <v>980</v>
@@ -7696,8 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,7973</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,3317;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>117389.0353</v>
       </c>
@@ -7717,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>46195.86245755</v>
       </c>
       <c r="AS8" t="n">
-        <v>166686.2977786</v>
+        <v>212882.16023615</v>
       </c>
     </row>
     <row r="9">
@@ -7919,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>253115.0130866</v>
+        <v>261274.6298218</v>
       </c>
       <c r="U10" t="n">
-        <v>39395.57856</v>
+        <v>40767.791808</v>
       </c>
       <c r="V10" t="n">
-        <v>29609.1378894</v>
+        <v>30848.42033251</v>
       </c>
       <c r="W10" t="n">
         <v>2180</v>
@@ -7966,8 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,4215</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,1800;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>534554.484775</v>
       </c>
@@ -7987,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>24753.7621942825</v>
       </c>
       <c r="AS10" t="n">
-        <v>706345.0480146501</v>
+        <v>731098.8102089326</v>
       </c>
     </row>
     <row r="11">
@@ -8054,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>265953.3059526</v>
+        <v>306755.3896286</v>
       </c>
       <c r="U11" t="n">
-        <v>40948.24416</v>
+        <v>47811.3104</v>
       </c>
       <c r="V11" t="n">
-        <v>31028.8677834</v>
+        <v>37235.74486491</v>
       </c>
       <c r="W11" t="n">
         <v>2180</v>
@@ -8101,8 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,21089</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,9005;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>534554.484775</v>
       </c>
@@ -8122,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>123846.7839506825</v>
       </c>
       <c r="AS11" t="n">
-        <v>738357.6804111501</v>
+        <v>862204.4643618325</v>
       </c>
     </row>
     <row r="12">
@@ -8189,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>278791.5988186</v>
+        <v>319593.6824946</v>
       </c>
       <c r="U12" t="n">
-        <v>42500.90976</v>
+        <v>49363.976</v>
       </c>
       <c r="V12" t="n">
-        <v>32448.5976774</v>
+        <v>38655.47475891</v>
       </c>
       <c r="W12" t="n">
         <v>2180</v>
@@ -8236,8 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,21089</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,9005;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>534554.484775</v>
       </c>
@@ -8257,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>123846.7839506825</v>
       </c>
       <c r="AS12" t="n">
-        <v>770370.3128076501</v>
+        <v>894217.0967583325</v>
       </c>
     </row>
     <row r="13">
@@ -8324,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>291629.8916846</v>
+        <v>372317.0381176</v>
       </c>
       <c r="U13" t="n">
-        <v>44053.57536</v>
+        <v>57624.44128</v>
       </c>
       <c r="V13" t="n">
-        <v>33868.3275714</v>
+        <v>46166.13712641</v>
       </c>
       <c r="W13" t="n">
         <v>2180</v>
@@ -8371,8 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,41826</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,17778;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>534554.484775</v>
       </c>
@@ -8392,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>245038.5262223075</v>
       </c>
       <c r="AS13" t="n">
-        <v>802382.9452041499</v>
+        <v>1047421.471426458</v>
       </c>
     </row>
     <row r="14">
@@ -8459,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>291629.8916846</v>
+        <v>332431.9753606</v>
       </c>
       <c r="U14" t="n">
-        <v>44053.57536</v>
+        <v>50916.6416</v>
       </c>
       <c r="V14" t="n">
-        <v>33868.3275714</v>
+        <v>40075.20465291</v>
       </c>
       <c r="W14" t="n">
         <v>2100</v>
@@ -8506,8 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,21089</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,9005;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>534554.484775</v>
       </c>
@@ -8527,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>123846.7839506825</v>
       </c>
       <c r="AS14" t="n">
-        <v>802199.9452041499</v>
+        <v>926046.7291548325</v>
       </c>
     </row>
     <row r="15">
@@ -8594,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>431696.999322</v>
+        <v>482861.968906</v>
       </c>
       <c r="U15" t="n">
-        <v>67370.83222700001</v>
+        <v>75975.82094860001</v>
       </c>
       <c r="V15" t="n">
-        <v>57143.84393240001</v>
+        <v>64977.27889866001</v>
       </c>
       <c r="W15" t="n">
         <v>2260</v>
@@ -8641,8 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,26465</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,11360;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>825252.4555100001</v>
       </c>
@@ -8662,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>155581.642819035</v>
       </c>
       <c r="AS15" t="n">
-        <v>1237356.3442996</v>
+        <v>1392937.987118635</v>
       </c>
     </row>
     <row r="16">
@@ -8729,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>431696.999322</v>
+        <v>491389.79717</v>
       </c>
       <c r="U16" t="n">
-        <v>67370.83222700001</v>
+        <v>77409.65240220001</v>
       </c>
       <c r="V16" t="n">
-        <v>57143.84393240001</v>
+        <v>66283.34751226001</v>
       </c>
       <c r="W16" t="n">
         <v>2340</v>
@@ -8776,8 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,30876</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,13254;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>825252.4555100001</v>
       </c>
@@ -8797,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>181512.802641075</v>
       </c>
       <c r="AS16" t="n">
-        <v>1237539.3442996</v>
+        <v>1419052.146940675</v>
       </c>
     </row>
     <row r="17">
@@ -8864,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1055701.7844587</v>
+        <v>1134355.52333335</v>
       </c>
       <c r="U17" t="n">
-        <v>174613.01569</v>
+        <v>187838.707027</v>
       </c>
       <c r="V17" t="n">
-        <v>161496.9</v>
+        <v>173818.61</v>
       </c>
       <c r="W17" t="n">
         <v>2660</v>
@@ -8911,8 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,40929</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,17760;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1896900.4873</v>
       </c>
@@ -8932,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>240760.84159995</v>
       </c>
       <c r="AS17" t="n">
-        <v>3202277.2677197</v>
+        <v>3443038.10931965</v>
       </c>
     </row>
     <row r="18">
@@ -8999,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5442584.2179368</v>
+        <v>5649474.2127008</v>
       </c>
       <c r="U18" t="n">
-        <v>892668.3203364999</v>
+        <v>927445.6633769999</v>
       </c>
       <c r="V18" t="n">
-        <v>811590.3807505999</v>
+        <v>843490.1329328899</v>
       </c>
       <c r="W18" t="n">
         <v>3300</v>
@@ -9046,8 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,100744</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,49588;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11550602.062245</v>
       </c>
@@ -9067,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>630277.2367916175</v>
       </c>
       <c r="AS18" t="n">
-        <v>16283242.8175746</v>
+        <v>16913520.05436622</v>
       </c>
     </row>
     <row r="19">
@@ -9134,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8978585.661784399</v>
+        <v>9185475.656548399</v>
       </c>
       <c r="U19" t="n">
-        <v>1477077.7360835</v>
+        <v>1511855.079124</v>
       </c>
       <c r="V19" t="n">
-        <v>1331343.1227992</v>
+        <v>1363242.87498149</v>
       </c>
       <c r="W19" t="n">
         <v>4340</v>
@@ -9181,8 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,100744</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,49588;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18740346.52143</v>
       </c>
@@ -9202,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>630277.2367916175</v>
       </c>
       <c r="AS19" t="n">
-        <v>26842626.49685595</v>
+        <v>27472903.73364757</v>
       </c>
     </row>
     <row r="20">
@@ -9269,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>220070.2696689</v>
+        <v>224505.97815335</v>
       </c>
       <c r="U20" t="n">
-        <v>39623.528544</v>
+        <v>40443.7343648</v>
       </c>
       <c r="V20" t="n">
-        <v>25614.4822648</v>
+        <v>26146.87276152</v>
       </c>
       <c r="W20" t="n">
         <v>980</v>
@@ -9316,8 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,1797</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,1081;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>561399.8865200001</v>
       </c>
@@ -9337,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>13156.37400411</v>
       </c>
       <c r="AS20" t="n">
-        <v>645506.3896451</v>
+        <v>658662.7636492101</v>
       </c>
     </row>
     <row r="21">
@@ -9404,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>290570.3425608</v>
+        <v>296496.8563936</v>
       </c>
       <c r="U21" t="n">
-        <v>49653.246551</v>
+        <v>50705.52306840001</v>
       </c>
       <c r="V21" t="n">
-        <v>35822.2388268</v>
+        <v>36591.72236142</v>
       </c>
       <c r="W21" t="n">
         <v>1260</v>
@@ -9451,8 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,2558</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,1418;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>667650.10783</v>
       </c>
@@ -9472,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>17611.752126925</v>
       </c>
       <c r="AS21" t="n">
-        <v>846257.8670168001</v>
+        <v>863869.619143725</v>
       </c>
     </row>
     <row r="22">
@@ -9539,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>412886.0183654</v>
+        <v>423991.6529089</v>
       </c>
       <c r="U22" t="n">
-        <v>65863.3525835</v>
+        <v>67740.82423075</v>
       </c>
       <c r="V22" t="n">
-        <v>54006.7483778</v>
+        <v>55622.24377902001</v>
       </c>
       <c r="W22" t="n">
         <v>2180</v>
@@ -9586,8 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,5243</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,2594;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>848756.401555</v>
       </c>
@@ -9607,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>33349.28746654</v>
       </c>
       <c r="AS22" t="n">
-        <v>1189624.9543639</v>
+        <v>1222974.24183044</v>
       </c>
     </row>
     <row r="23">
@@ -9674,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>476773.435969</v>
+        <v>491374.0174655</v>
       </c>
       <c r="U23" t="n">
-        <v>77818.66172100001</v>
+        <v>80279.76969690001</v>
       </c>
       <c r="V23" t="n">
-        <v>64529.5518518</v>
+        <v>66705.79625752001</v>
       </c>
       <c r="W23" t="n">
         <v>2340</v>
@@ -9721,8 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,6997</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,3437;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>927540.177305</v>
       </c>
@@ -9742,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>44095.6318631</v>
       </c>
       <c r="AS23" t="n">
-        <v>1397173.62499175</v>
+        <v>1441269.25685485</v>
       </c>
     </row>
     <row r="24">
@@ -9809,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>547014.02853</v>
+        <v>564566.82705</v>
       </c>
       <c r="U24" t="n">
-        <v>95031.015155</v>
+        <v>97983.821583</v>
       </c>
       <c r="V24" t="n">
-        <v>78324.057464</v>
+        <v>81002.3374836</v>
       </c>
       <c r="W24" t="n">
         <v>2660</v>
@@ -9856,8 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,8565</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,4155;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1051758.3299</v>
       </c>
@@ -9877,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>53327.2729859</v>
       </c>
       <c r="AS24" t="n">
-        <v>1666229.8635175</v>
+        <v>1719557.1365034</v>
       </c>
     </row>
     <row r="25">
@@ -9944,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>690825.3806436</v>
+        <v>714934.8435216</v>
       </c>
       <c r="U25" t="n">
-        <v>130215.7867505</v>
+        <v>134268.386349</v>
       </c>
       <c r="V25" t="n">
-        <v>106311.6812018</v>
+        <v>110106.18286617</v>
       </c>
       <c r="W25" t="n">
         <v>3300</v>
@@ -9991,8 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,12019</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,5759;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1309430.078765</v>
       </c>
@@ -10012,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>73890.7846777775</v>
       </c>
       <c r="AS25" t="n">
-        <v>2215208.9761324</v>
+        <v>2289099.760810178</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/45.xlsx
+++ b/opm_hero_property/heroes/45.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>45</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5649474.2127008</v>
+        <v>6558881.2007328</v>
       </c>
       <c r="U2" t="n">
-        <v>927445.6633769999</v>
+        <v>1080313.876041</v>
       </c>
       <c r="V2" t="n">
-        <v>843490.1329328899</v>
+        <v>983966.9259008898</v>
       </c>
       <c r="W2" t="n">
         <v>3300</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11550602.062245</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2130372.0553296</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2931087.5649796</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1847957.05</v>
+      </c>
+      <c r="AU2" t="n">
         <v>630277.2367916175</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16913520.05436622</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19685459.26934582</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>45</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>714934.8435216</v>
+        <v>817349.0443856</v>
       </c>
       <c r="U3" t="n">
-        <v>134268.386349</v>
+        <v>151483.899717</v>
       </c>
       <c r="V3" t="n">
-        <v>110106.18286617</v>
+        <v>126255.56777017</v>
       </c>
       <c r="W3" t="n">
         <v>3300</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1309430.078765</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>242178.2473674</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>585369.0063012</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>209371.8</v>
+      </c>
+      <c r="AU3" t="n">
         <v>73890.7846777775</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2289099.760810178</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2603159.967111378</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>45</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7876.4112</v>
+        <v>8355.4112</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.6765</v>
+        <v>1593.6765</v>
       </c>
       <c r="V4" t="n">
-        <v>620.5625</v>
+        <v>694.5625</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19119.613425</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23618.513425</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1456.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25075.013425</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>45</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>21124.9293</v>
+        <v>35202.9293</v>
       </c>
       <c r="U5" t="n">
-        <v>3763.7042</v>
+        <v>6129.7042</v>
       </c>
       <c r="V5" t="n">
-        <v>1902.319</v>
+        <v>4076.319</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48822.72253</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60729.52253</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>42903.9</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>103633.42253</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>45</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>59568.0268</v>
+        <v>119922.0268</v>
       </c>
       <c r="U6" t="n">
-        <v>9702.4</v>
+        <v>19847.4</v>
       </c>
       <c r="V6" t="n">
-        <v>6040.478</v>
+        <v>15363.478</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>117389.0353</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9526.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>165814.8353</v>
+      <c r="AT6" t="n">
+        <v>183961.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>349776.5853</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>45</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>67154.31490719999</v>
+        <v>127508.3149072</v>
       </c>
       <c r="U7" t="n">
-        <v>10979.9616</v>
+        <v>21124.9616</v>
       </c>
       <c r="V7" t="n">
-        <v>7204.7724642</v>
+        <v>16527.7724642</v>
       </c>
       <c r="W7" t="n">
         <v>980</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>117389.0353</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>183961.75</v>
+      </c>
+      <c r="AU7" t="n">
         <v>23096.15631635</v>
       </c>
-      <c r="AS7" t="n">
-        <v>189093.99161635</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>373055.74161635</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>45</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>75022.107202</v>
+        <v>135376.107202</v>
       </c>
       <c r="U8" t="n">
-        <v>12294.4752</v>
+        <v>22439.4752</v>
       </c>
       <c r="V8" t="n">
-        <v>8396.117244199999</v>
+        <v>17719.1172442</v>
       </c>
       <c r="W8" t="n">
         <v>980</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>117389.0353</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>688.4624785999999</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>183961.75</v>
+      </c>
+      <c r="AU8" t="n">
         <v>46195.86245755</v>
       </c>
-      <c r="AS8" t="n">
-        <v>212882.16023615</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>396843.91023615</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>45</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>251831.1838</v>
+        <v>431874.225638</v>
       </c>
       <c r="U9" t="n">
-        <v>39240.31200000001</v>
+        <v>68265.84512000001</v>
       </c>
       <c r="V9" t="n">
-        <v>29467.1649</v>
+        <v>55604.786549</v>
       </c>
       <c r="W9" t="n">
-        <v>2180</v>
+        <v>2190</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="AA9" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB9" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>534554.484775</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>703173.5347750001</v>
+        <v>44675.69484775</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>431045.65</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000005</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1233904.07962275</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>45</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>261274.6298218</v>
+        <v>498858.3497496764</v>
       </c>
       <c r="U10" t="n">
-        <v>40767.791808</v>
+        <v>79027.452625408</v>
       </c>
       <c r="V10" t="n">
-        <v>30848.42033251</v>
+        <v>63508.99073717718</v>
       </c>
       <c r="W10" t="n">
-        <v>2180</v>
+        <v>2190</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="AA10" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB10" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>534554.484775</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3171.51323965</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44675.69484775</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>431045.65</v>
+      </c>
+      <c r="AU10" t="n">
         <v>24753.7621942825</v>
       </c>
-      <c r="AS10" t="n">
-        <v>731098.8102089326</v>
+      <c r="AV10" t="n">
+        <v>253110.7145470779</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1420592.469603761</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>45</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>306755.3896286</v>
+        <v>609332.4832329988</v>
       </c>
       <c r="U11" t="n">
-        <v>47811.3104</v>
+        <v>95035.22588672</v>
       </c>
       <c r="V11" t="n">
-        <v>37235.74486491</v>
+        <v>77137.28711116039</v>
       </c>
       <c r="W11" t="n">
-        <v>2180</v>
+        <v>2190</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1250</v>
+        <v>1260</v>
       </c>
       <c r="AA11" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB11" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>534554.484775</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>35184.14563615</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44675.69484775</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>431045.65</v>
+      </c>
+      <c r="AU11" t="n">
         <v>123846.7839506825</v>
       </c>
-      <c r="AS11" t="n">
-        <v>862204.4643618325</v>
+      <c r="AV11" t="n">
+        <v>421593.0335309565</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1720180.442740539</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>45</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>319593.6824946</v>
+        <v>704870.5515435846</v>
       </c>
       <c r="U12" t="n">
-        <v>49363.976</v>
+        <v>106026.26481152</v>
       </c>
       <c r="V12" t="n">
-        <v>38655.47475891</v>
+        <v>89554.79045704221</v>
       </c>
       <c r="W12" t="n">
-        <v>2180</v>
+        <v>2200</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1600</v>
+        <v>1620</v>
       </c>
       <c r="AA12" t="n">
-        <v>2880</v>
+        <v>2900</v>
       </c>
       <c r="AB12" t="n">
-        <v>1800</v>
+        <v>1880</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>534554.484775</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>67196.77803265001</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44675.69484775</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>431045.65</v>
+      </c>
+      <c r="AU12" t="n">
         <v>123846.7839506825</v>
       </c>
-      <c r="AS12" t="n">
-        <v>894217.0967583325</v>
+      <c r="AV12" t="n">
+        <v>632774.7822649828</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1963374.823871065</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>45</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>372317.0381176</v>
+        <v>854773.1136346675</v>
       </c>
       <c r="U13" t="n">
-        <v>57624.44128</v>
+        <v>127308.4638624</v>
       </c>
       <c r="V13" t="n">
-        <v>46166.13712641</v>
+        <v>108234.3726439772</v>
       </c>
       <c r="W13" t="n">
-        <v>2180</v>
+        <v>2230</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="AA13" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB13" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>534554.484775</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>99209.41042915001</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44675.69484775</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>431045.65</v>
+      </c>
+      <c r="AU13" t="n">
         <v>245038.5262223075</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1047421.471426458</v>
+      <c r="AV13" t="n">
+        <v>884385.2407138889</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2368189.656988096</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>45</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>332431.9753606</v>
+        <v>946690.9060241329</v>
       </c>
       <c r="U14" t="n">
-        <v>50916.6416</v>
+        <v>135297.20291328</v>
       </c>
       <c r="V14" t="n">
-        <v>40075.20465291</v>
+        <v>112186.1901331558</v>
       </c>
       <c r="W14" t="n">
-        <v>2100</v>
+        <v>2150</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1890</v>
+        <v>1940</v>
       </c>
       <c r="AA14" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB14" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>534554.484775</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>99209.41042915001</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39155.4</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44492.69484775</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>431045.65</v>
+      </c>
+      <c r="AU14" t="n">
         <v>123846.7839506825</v>
       </c>
-      <c r="AS14" t="n">
-        <v>926046.7291548325</v>
+      <c r="AV14" t="n">
+        <v>1175340.025388829</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2537769.699391411</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>45</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>482861.968906</v>
+        <v>1494620.157965718</v>
       </c>
       <c r="U15" t="n">
-        <v>75975.82094860001</v>
+        <v>226856.026691762</v>
       </c>
       <c r="V15" t="n">
-        <v>64977.27889866001</v>
+        <v>189589.8877112264</v>
       </c>
       <c r="W15" t="n">
-        <v>2260</v>
+        <v>2360</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2010</v>
+        <v>2110</v>
       </c>
       <c r="AA15" t="n">
-        <v>2880</v>
+        <v>2980</v>
       </c>
       <c r="AB15" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>825252.4555100001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>152830.0887896</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111894</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128382.5491102</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>788677.3500000001</v>
+      </c>
+      <c r="AU15" t="n">
         <v>155581.642819035</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1392937.987118635</v>
+      <c r="AV15" t="n">
+        <v>1965388.210249593</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4163492.096478427</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>45</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>491389.79717</v>
+        <v>1531662.34586091</v>
       </c>
       <c r="U16" t="n">
-        <v>77409.65240220001</v>
+        <v>232587.3273018372</v>
       </c>
       <c r="V16" t="n">
-        <v>66283.34751226001</v>
+        <v>194389.7123244953</v>
       </c>
       <c r="W16" t="n">
-        <v>2340</v>
+        <v>2540</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2070</v>
+        <v>2270</v>
       </c>
       <c r="AA16" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB16" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>825252.4555100001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>152830.0887896</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112077</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128565.5491102</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>788677.3500000001</v>
+      </c>
+      <c r="AU16" t="n">
         <v>181512.802641075</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1419052.146940675</v>
+      <c r="AV16" t="n">
+        <v>2044844.20405856</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4269062.250109435</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>45</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1134355.52333335</v>
+        <v>2760676.50929732</v>
       </c>
       <c r="U17" t="n">
-        <v>187838.707027</v>
+        <v>423890.5947751841</v>
       </c>
       <c r="V17" t="n">
-        <v>173818.61</v>
+        <v>378266.57392</v>
       </c>
       <c r="W17" t="n">
-        <v>2660</v>
+        <v>2860</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2310</v>
+        <v>2510</v>
       </c>
       <c r="AA17" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB17" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1896900.4873</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>350504.6304197</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685015</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>760858.019492</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1260111.7</v>
+      </c>
+      <c r="AU17" t="n">
         <v>240760.84159995</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3443038.10931965</v>
+      <c r="AV17" t="n">
+        <v>3097100.08447444</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7876092.91328609</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>45</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5649474.2127008</v>
+        <v>9796280.607258841</v>
       </c>
       <c r="U18" t="n">
-        <v>927445.6633769999</v>
+        <v>1476334.513413838</v>
       </c>
       <c r="V18" t="n">
-        <v>843490.1329328899</v>
+        <v>1323236.767157195</v>
       </c>
       <c r="W18" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2790</v>
+        <v>2990</v>
       </c>
       <c r="AA18" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB18" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11550602.062245</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2130372.0553296</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2931087.5649796</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1847957.05</v>
+      </c>
+      <c r="AU18" t="n">
         <v>630277.2367916175</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16913520.05436622</v>
+      <c r="AV18" t="n">
+        <v>7923143.391622376</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27608602.66096819</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>45</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9185475.656548399</v>
+        <v>16742895.61291363</v>
       </c>
       <c r="U19" t="n">
-        <v>1511855.079124</v>
+        <v>2635485.627335136</v>
       </c>
       <c r="V19" t="n">
-        <v>1363242.87498149</v>
+        <v>2342577.906872804</v>
       </c>
       <c r="W19" t="n">
-        <v>4340</v>
+        <v>4540</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>3570</v>
+        <v>3770</v>
       </c>
       <c r="AA19" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB19" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18740346.52143</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3456068.17542595</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470479</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6281407.2282145</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1847957.05</v>
+      </c>
+      <c r="AU19" t="n">
         <v>630277.2367916175</v>
       </c>
-      <c r="AS19" t="n">
-        <v>27472903.73364757</v>
+      <c r="AV19" t="n">
+        <v>16285161.89418262</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>48416950.90604468</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>45</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>224505.97815335</v>
+        <v>231301.97815335</v>
       </c>
       <c r="U20" t="n">
-        <v>40443.7343648</v>
+        <v>41585.7343648</v>
       </c>
       <c r="V20" t="n">
-        <v>26146.87276152</v>
+        <v>27217.87276152</v>
       </c>
       <c r="W20" t="n">
         <v>980</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>561399.8865200001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3311.3031251</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33359.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20834.05</v>
+      </c>
+      <c r="AU20" t="n">
         <v>13156.37400411</v>
       </c>
-      <c r="AS20" t="n">
-        <v>658662.7636492101</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>679496.81364921</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>45</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>296496.8563936</v>
+        <v>310526.7332976</v>
       </c>
       <c r="U21" t="n">
-        <v>50705.52306840001</v>
+        <v>53085.0609504</v>
       </c>
       <c r="V21" t="n">
-        <v>36591.72236142</v>
+        <v>38744.17675942</v>
       </c>
       <c r="W21" t="n">
         <v>1260</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>667650.10783</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>43752.3091868</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>66719.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>73387.85107830001</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36157.05</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17611.752126925</v>
       </c>
-      <c r="AS21" t="n">
-        <v>863869.619143725</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>906694.9202220251</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>45</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>423991.6529089</v>
+        <v>553934.9062827083</v>
       </c>
       <c r="U22" t="n">
-        <v>67740.82423075</v>
+        <v>86290.15419382775</v>
       </c>
       <c r="V22" t="n">
-        <v>55622.24377902001</v>
+        <v>71507.30571330969</v>
       </c>
       <c r="W22" t="n">
-        <v>2180</v>
+        <v>2230</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1600</v>
+        <v>1650</v>
       </c>
       <c r="AA22" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB22" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>848756.401555</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>106434.8528089</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>96891.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>105370.71401555</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>48835.55</v>
+      </c>
+      <c r="AU22" t="n">
         <v>33349.28746654</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1222974.24183044</v>
+      <c r="AV22" t="n">
+        <v>292557.8722256604</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1572846.97807165</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>45</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>491374.0174655</v>
+        <v>714264.6863379029</v>
       </c>
       <c r="U23" t="n">
-        <v>80279.76969690001</v>
+        <v>115672.3501406703</v>
       </c>
       <c r="V23" t="n">
-        <v>66705.79625752001</v>
+        <v>94770.71684016337</v>
       </c>
       <c r="W23" t="n">
-        <v>2340</v>
+        <v>2540</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2070</v>
+        <v>2270</v>
       </c>
       <c r="AA23" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB23" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>927540.177305</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>171691.19768675</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>153419</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>171953.3035461</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>89356.45000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>44095.6318631</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1441269.25685485</v>
+      <c r="AV23" t="n">
+        <v>522982.0137385172</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2072142.024139467</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>45</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>564566.82705</v>
+        <v>894182.4592308999</v>
       </c>
       <c r="U24" t="n">
-        <v>97983.821583</v>
+        <v>151305.867162961</v>
       </c>
       <c r="V24" t="n">
-        <v>81002.3374836</v>
+        <v>123922.0873587788</v>
       </c>
       <c r="W24" t="n">
-        <v>2660</v>
+        <v>2860</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2310</v>
+        <v>2510</v>
       </c>
       <c r="AA24" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB24" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1051758.3299</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>194632.6836175</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>262506.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>304543.533196</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>142767.15</v>
+      </c>
+      <c r="AU24" t="n">
         <v>53327.2729859</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1719557.1365034</v>
+      <c r="AV24" t="n">
+        <v>761921.8252689092</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2666283.444968309</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>45</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>714934.8435216</v>
+        <v>1519862.610045773</v>
       </c>
       <c r="U25" t="n">
-        <v>134268.386349</v>
+        <v>261092.241486537</v>
       </c>
       <c r="V25" t="n">
-        <v>110106.18286617</v>
+        <v>214844.7602923553</v>
       </c>
       <c r="W25" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2790</v>
+        <v>2990</v>
       </c>
       <c r="AA25" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB25" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1309430.078765</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>242178.2473674</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>585369.0063012</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>209371.8</v>
+      </c>
+      <c r="AU25" t="n">
         <v>73890.7846777775</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2289099.760810178</v>
+      <c r="AV25" t="n">
+        <v>1970598.980872544</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4573758.947983922</v>
       </c>
     </row>
   </sheetData>
